--- a/Data/2020_12_17.xlsx
+++ b/Data/2020_12_17.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
-  <si>
-    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-12-16 08:00 Uhr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+  <si>
+    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-12-17 08:00 Uhr</t>
   </si>
   <si>
     <t xml:space="preserve">Quelle: BAG/MT</t>
@@ -301,33 +301,39 @@
     <t xml:space="preserve">Inzidenz Quarantäne nach Einreise aus Risikoland</t>
   </si>
   <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keine aktuellen Daten gemeldet</t>
   </si>
   <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">192</t>
   </si>
   <si>
@@ -434,6 +440,15 @@
   </si>
   <si>
     <t xml:space="preserve">1019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">6516</t>
@@ -450,7 +465,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="50000" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -489,7 +504,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="50000" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,7 +796,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
@@ -5015,10 +5030,10 @@
         <v>40901</v>
       </c>
       <c r="D191" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E191" t="n">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -5041,7 +5056,7 @@
         <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -5064,7 +5079,7 @@
         <v>6</v>
       </c>
       <c r="E193" t="n">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="F193" t="n">
         <v>2</v>
@@ -5087,7 +5102,7 @@
         <v>9</v>
       </c>
       <c r="E194" t="n">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -5110,7 +5125,7 @@
         <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -5133,7 +5148,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -5156,7 +5171,7 @@
         <v>8</v>
       </c>
       <c r="E197" t="n">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -5179,7 +5194,7 @@
         <v>10</v>
       </c>
       <c r="E198" t="n">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -5202,7 +5217,7 @@
         <v>11</v>
       </c>
       <c r="E199" t="n">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="F199" t="n">
         <v>3</v>
@@ -5225,7 +5240,7 @@
         <v>12</v>
       </c>
       <c r="E200" t="n">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -5248,7 +5263,7 @@
         <v>12</v>
       </c>
       <c r="E201" t="n">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="F201" t="n">
         <v>2</v>
@@ -5271,7 +5286,7 @@
         <v>9</v>
       </c>
       <c r="E202" t="n">
-        <v>4560</v>
+        <v>4561</v>
       </c>
       <c r="F202" t="n">
         <v>2</v>
@@ -5294,7 +5309,7 @@
         <v>8</v>
       </c>
       <c r="E203" t="n">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="F203" t="n">
         <v>3</v>
@@ -5317,7 +5332,7 @@
         <v>14</v>
       </c>
       <c r="E204" t="n">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -5340,7 +5355,7 @@
         <v>8</v>
       </c>
       <c r="E205" t="n">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -5363,7 +5378,7 @@
         <v>15</v>
       </c>
       <c r="E206" t="n">
-        <v>4605</v>
+        <v>4606</v>
       </c>
       <c r="F206" t="n">
         <v>7</v>
@@ -5386,7 +5401,7 @@
         <v>22</v>
       </c>
       <c r="E207" t="n">
-        <v>4627</v>
+        <v>4628</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -5409,7 +5424,7 @@
         <v>15</v>
       </c>
       <c r="E208" t="n">
-        <v>4642</v>
+        <v>4643</v>
       </c>
       <c r="F208" t="n">
         <v>4</v>
@@ -5432,7 +5447,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="n">
-        <v>4655</v>
+        <v>4656</v>
       </c>
       <c r="F209" t="n">
         <v>3</v>
@@ -5455,7 +5470,7 @@
         <v>12</v>
       </c>
       <c r="E210" t="n">
-        <v>4667</v>
+        <v>4668</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
@@ -5478,7 +5493,7 @@
         <v>10</v>
       </c>
       <c r="E211" t="n">
-        <v>4677</v>
+        <v>4678</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -5501,7 +5516,7 @@
         <v>10</v>
       </c>
       <c r="E212" t="n">
-        <v>4687</v>
+        <v>4688</v>
       </c>
       <c r="F212" t="n">
         <v>3</v>
@@ -5524,7 +5539,7 @@
         <v>22</v>
       </c>
       <c r="E213" t="n">
-        <v>4709</v>
+        <v>4710</v>
       </c>
       <c r="F213" t="n">
         <v>5</v>
@@ -5547,7 +5562,7 @@
         <v>15</v>
       </c>
       <c r="E214" t="n">
-        <v>4724</v>
+        <v>4725</v>
       </c>
       <c r="F214" t="n">
         <v>4</v>
@@ -5570,7 +5585,7 @@
         <v>23</v>
       </c>
       <c r="E215" t="n">
-        <v>4747</v>
+        <v>4748</v>
       </c>
       <c r="F215" t="n">
         <v>2</v>
@@ -5593,7 +5608,7 @@
         <v>12</v>
       </c>
       <c r="E216" t="n">
-        <v>4759</v>
+        <v>4760</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
@@ -5616,7 +5631,7 @@
         <v>12</v>
       </c>
       <c r="E217" t="n">
-        <v>4771</v>
+        <v>4772</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -5639,7 +5654,7 @@
         <v>22</v>
       </c>
       <c r="E218" t="n">
-        <v>4793</v>
+        <v>4794</v>
       </c>
       <c r="F218" t="n">
         <v>3</v>
@@ -5662,7 +5677,7 @@
         <v>10</v>
       </c>
       <c r="E219" t="n">
-        <v>4803</v>
+        <v>4804</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
@@ -5685,7 +5700,7 @@
         <v>16</v>
       </c>
       <c r="E220" t="n">
-        <v>4819</v>
+        <v>4820</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -5708,7 +5723,7 @@
         <v>19</v>
       </c>
       <c r="E221" t="n">
-        <v>4838</v>
+        <v>4839</v>
       </c>
       <c r="F221" t="n">
         <v>3</v>
@@ -5731,7 +5746,7 @@
         <v>14</v>
       </c>
       <c r="E222" t="n">
-        <v>4852</v>
+        <v>4853</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -5754,7 +5769,7 @@
         <v>8</v>
       </c>
       <c r="E223" t="n">
-        <v>4860</v>
+        <v>4861</v>
       </c>
       <c r="F223" t="n">
         <v>2</v>
@@ -5777,7 +5792,7 @@
         <v>20</v>
       </c>
       <c r="E224" t="n">
-        <v>4880</v>
+        <v>4881</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -5797,10 +5812,10 @@
         <v>53173</v>
       </c>
       <c r="D225" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E225" t="n">
-        <v>4898</v>
+        <v>4900</v>
       </c>
       <c r="F225" t="n">
         <v>3</v>
@@ -5823,7 +5838,7 @@
         <v>28</v>
       </c>
       <c r="E226" t="n">
-        <v>4926</v>
+        <v>4928</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
@@ -5846,7 +5861,7 @@
         <v>23</v>
       </c>
       <c r="E227" t="n">
-        <v>4949</v>
+        <v>4951</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -5869,7 +5884,7 @@
         <v>20</v>
       </c>
       <c r="E228" t="n">
-        <v>4969</v>
+        <v>4971</v>
       </c>
       <c r="F228" t="n">
         <v>5</v>
@@ -5892,7 +5907,7 @@
         <v>27</v>
       </c>
       <c r="E229" t="n">
-        <v>4996</v>
+        <v>4998</v>
       </c>
       <c r="F229" t="n">
         <v>1</v>
@@ -5915,7 +5930,7 @@
         <v>19</v>
       </c>
       <c r="E230" t="n">
-        <v>5015</v>
+        <v>5017</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -5938,7 +5953,7 @@
         <v>16</v>
       </c>
       <c r="E231" t="n">
-        <v>5031</v>
+        <v>5033</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
@@ -5961,7 +5976,7 @@
         <v>23</v>
       </c>
       <c r="E232" t="n">
-        <v>5054</v>
+        <v>5056</v>
       </c>
       <c r="F232" t="n">
         <v>2</v>
@@ -5984,7 +5999,7 @@
         <v>36</v>
       </c>
       <c r="E233" t="n">
-        <v>5090</v>
+        <v>5092</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
@@ -6007,7 +6022,7 @@
         <v>36</v>
       </c>
       <c r="E234" t="n">
-        <v>5126</v>
+        <v>5128</v>
       </c>
       <c r="F234" t="n">
         <v>2</v>
@@ -6030,7 +6045,7 @@
         <v>54</v>
       </c>
       <c r="E235" t="n">
-        <v>5180</v>
+        <v>5182</v>
       </c>
       <c r="F235" t="n">
         <v>3</v>
@@ -6053,7 +6068,7 @@
         <v>46</v>
       </c>
       <c r="E236" t="n">
-        <v>5226</v>
+        <v>5228</v>
       </c>
       <c r="F236" t="n">
         <v>3</v>
@@ -6076,7 +6091,7 @@
         <v>31</v>
       </c>
       <c r="E237" t="n">
-        <v>5257</v>
+        <v>5259</v>
       </c>
       <c r="F237" t="n">
         <v>3</v>
@@ -6099,7 +6114,7 @@
         <v>47</v>
       </c>
       <c r="E238" t="n">
-        <v>5304</v>
+        <v>5306</v>
       </c>
       <c r="F238" t="n">
         <v>3</v>
@@ -6122,7 +6137,7 @@
         <v>81</v>
       </c>
       <c r="E239" t="n">
-        <v>5385</v>
+        <v>5387</v>
       </c>
       <c r="F239" t="n">
         <v>5</v>
@@ -6136,16 +6151,16 @@
         <v>44117</v>
       </c>
       <c r="B240" t="n">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="C240" t="n">
-        <v>70315</v>
+        <v>70316</v>
       </c>
       <c r="D240" t="n">
         <v>67</v>
       </c>
       <c r="E240" t="n">
-        <v>5452</v>
+        <v>5454</v>
       </c>
       <c r="F240" t="n">
         <v>6</v>
@@ -6162,13 +6177,13 @@
         <v>3005</v>
       </c>
       <c r="C241" t="n">
-        <v>73320</v>
+        <v>73321</v>
       </c>
       <c r="D241" t="n">
         <v>90</v>
       </c>
       <c r="E241" t="n">
-        <v>5542</v>
+        <v>5544</v>
       </c>
       <c r="F241" t="n">
         <v>5</v>
@@ -6185,13 +6200,13 @@
         <v>3410</v>
       </c>
       <c r="C242" t="n">
-        <v>76730</v>
+        <v>76731</v>
       </c>
       <c r="D242" t="n">
         <v>95</v>
       </c>
       <c r="E242" t="n">
-        <v>5637</v>
+        <v>5639</v>
       </c>
       <c r="F242" t="n">
         <v>5</v>
@@ -6205,16 +6220,16 @@
         <v>44120</v>
       </c>
       <c r="B243" t="n">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="C243" t="n">
-        <v>80428</v>
+        <v>80430</v>
       </c>
       <c r="D243" t="n">
         <v>108</v>
       </c>
       <c r="E243" t="n">
-        <v>5745</v>
+        <v>5747</v>
       </c>
       <c r="F243" t="n">
         <v>8</v>
@@ -6231,13 +6246,13 @@
         <v>2382</v>
       </c>
       <c r="C244" t="n">
-        <v>82810</v>
+        <v>82812</v>
       </c>
       <c r="D244" t="n">
         <v>113</v>
       </c>
       <c r="E244" t="n">
-        <v>5858</v>
+        <v>5860</v>
       </c>
       <c r="F244" t="n">
         <v>7</v>
@@ -6254,13 +6269,13 @@
         <v>1788</v>
       </c>
       <c r="C245" t="n">
-        <v>84598</v>
+        <v>84600</v>
       </c>
       <c r="D245" t="n">
         <v>71</v>
       </c>
       <c r="E245" t="n">
-        <v>5929</v>
+        <v>5931</v>
       </c>
       <c r="F245" t="n">
         <v>7</v>
@@ -6277,13 +6292,13 @@
         <v>5427</v>
       </c>
       <c r="C246" t="n">
-        <v>90025</v>
+        <v>90027</v>
       </c>
       <c r="D246" t="n">
         <v>156</v>
       </c>
       <c r="E246" t="n">
-        <v>6085</v>
+        <v>6087</v>
       </c>
       <c r="F246" t="n">
         <v>16</v>
@@ -6300,13 +6315,13 @@
         <v>5697</v>
       </c>
       <c r="C247" t="n">
-        <v>95722</v>
+        <v>95724</v>
       </c>
       <c r="D247" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E247" t="n">
-        <v>6240</v>
+        <v>6243</v>
       </c>
       <c r="F247" t="n">
         <v>13</v>
@@ -6320,16 +6335,16 @@
         <v>44125</v>
       </c>
       <c r="B248" t="n">
-        <v>6479</v>
+        <v>6481</v>
       </c>
       <c r="C248" t="n">
-        <v>102201</v>
+        <v>102205</v>
       </c>
       <c r="D248" t="n">
         <v>142</v>
       </c>
       <c r="E248" t="n">
-        <v>6382</v>
+        <v>6385</v>
       </c>
       <c r="F248" t="n">
         <v>18</v>
@@ -6343,16 +6358,16 @@
         <v>44126</v>
       </c>
       <c r="B249" t="n">
-        <v>6782</v>
+        <v>6783</v>
       </c>
       <c r="C249" t="n">
-        <v>108983</v>
+        <v>108988</v>
       </c>
       <c r="D249" t="n">
         <v>169</v>
       </c>
       <c r="E249" t="n">
-        <v>6551</v>
+        <v>6554</v>
       </c>
       <c r="F249" t="n">
         <v>24</v>
@@ -6369,13 +6384,13 @@
         <v>7527</v>
       </c>
       <c r="C250" t="n">
-        <v>116510</v>
+        <v>116515</v>
       </c>
       <c r="D250" t="n">
         <v>197</v>
       </c>
       <c r="E250" t="n">
-        <v>6748</v>
+        <v>6751</v>
       </c>
       <c r="F250" t="n">
         <v>25</v>
@@ -6392,13 +6407,13 @@
         <v>4691</v>
       </c>
       <c r="C251" t="n">
-        <v>121201</v>
+        <v>121206</v>
       </c>
       <c r="D251" t="n">
         <v>167</v>
       </c>
       <c r="E251" t="n">
-        <v>6915</v>
+        <v>6918</v>
       </c>
       <c r="F251" t="n">
         <v>25</v>
@@ -6415,13 +6430,13 @@
         <v>3226</v>
       </c>
       <c r="C252" t="n">
-        <v>124427</v>
+        <v>124432</v>
       </c>
       <c r="D252" t="n">
         <v>188</v>
       </c>
       <c r="E252" t="n">
-        <v>7103</v>
+        <v>7106</v>
       </c>
       <c r="F252" t="n">
         <v>21</v>
@@ -6435,16 +6450,16 @@
         <v>44130</v>
       </c>
       <c r="B253" t="n">
-        <v>10136</v>
+        <v>10135</v>
       </c>
       <c r="C253" t="n">
-        <v>134563</v>
+        <v>134567</v>
       </c>
       <c r="D253" t="n">
         <v>238</v>
       </c>
       <c r="E253" t="n">
-        <v>7341</v>
+        <v>7344</v>
       </c>
       <c r="F253" t="n">
         <v>20</v>
@@ -6458,16 +6473,16 @@
         <v>44131</v>
       </c>
       <c r="B254" t="n">
-        <v>9781</v>
+        <v>9780</v>
       </c>
       <c r="C254" t="n">
-        <v>144344</v>
+        <v>144347</v>
       </c>
       <c r="D254" t="n">
         <v>205</v>
       </c>
       <c r="E254" t="n">
-        <v>7546</v>
+        <v>7549</v>
       </c>
       <c r="F254" t="n">
         <v>39</v>
@@ -6484,13 +6499,13 @@
         <v>9339</v>
       </c>
       <c r="C255" t="n">
-        <v>153683</v>
+        <v>153686</v>
       </c>
       <c r="D255" t="n">
         <v>245</v>
       </c>
       <c r="E255" t="n">
-        <v>7791</v>
+        <v>7794</v>
       </c>
       <c r="F255" t="n">
         <v>42</v>
@@ -6504,16 +6519,16 @@
         <v>44133</v>
       </c>
       <c r="B256" t="n">
-        <v>9020</v>
+        <v>9019</v>
       </c>
       <c r="C256" t="n">
-        <v>162703</v>
+        <v>162705</v>
       </c>
       <c r="D256" t="n">
         <v>223</v>
       </c>
       <c r="E256" t="n">
-        <v>8014</v>
+        <v>8017</v>
       </c>
       <c r="F256" t="n">
         <v>58</v>
@@ -6530,13 +6545,13 @@
         <v>8974</v>
       </c>
       <c r="C257" t="n">
-        <v>171677</v>
+        <v>171679</v>
       </c>
       <c r="D257" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E257" t="n">
-        <v>8300</v>
+        <v>8304</v>
       </c>
       <c r="F257" t="n">
         <v>41</v>
@@ -6553,13 +6568,13 @@
         <v>5152</v>
       </c>
       <c r="C258" t="n">
-        <v>176829</v>
+        <v>176831</v>
       </c>
       <c r="D258" t="n">
         <v>165</v>
       </c>
       <c r="E258" t="n">
-        <v>8465</v>
+        <v>8469</v>
       </c>
       <c r="F258" t="n">
         <v>57</v>
@@ -6573,16 +6588,16 @@
         <v>44136</v>
       </c>
       <c r="B259" t="n">
-        <v>3640</v>
+        <v>3648</v>
       </c>
       <c r="C259" t="n">
-        <v>180469</v>
+        <v>180479</v>
       </c>
       <c r="D259" t="n">
         <v>204</v>
       </c>
       <c r="E259" t="n">
-        <v>8669</v>
+        <v>8673</v>
       </c>
       <c r="F259" t="n">
         <v>59</v>
@@ -6599,13 +6614,13 @@
         <v>10556</v>
       </c>
       <c r="C260" t="n">
-        <v>191025</v>
+        <v>191035</v>
       </c>
       <c r="D260" t="n">
         <v>292</v>
       </c>
       <c r="E260" t="n">
-        <v>8961</v>
+        <v>8965</v>
       </c>
       <c r="F260" t="n">
         <v>58</v>
@@ -6622,13 +6637,13 @@
         <v>9630</v>
       </c>
       <c r="C261" t="n">
-        <v>200655</v>
+        <v>200665</v>
       </c>
       <c r="D261" t="n">
         <v>256</v>
       </c>
       <c r="E261" t="n">
-        <v>9217</v>
+        <v>9221</v>
       </c>
       <c r="F261" t="n">
         <v>78</v>
@@ -6645,13 +6660,13 @@
         <v>8748</v>
       </c>
       <c r="C262" t="n">
-        <v>209403</v>
+        <v>209413</v>
       </c>
       <c r="D262" t="n">
         <v>207</v>
       </c>
       <c r="E262" t="n">
-        <v>9424</v>
+        <v>9428</v>
       </c>
       <c r="F262" t="n">
         <v>81</v>
@@ -6668,13 +6683,13 @@
         <v>7868</v>
       </c>
       <c r="C263" t="n">
-        <v>217271</v>
+        <v>217281</v>
       </c>
       <c r="D263" t="n">
         <v>208</v>
       </c>
       <c r="E263" t="n">
-        <v>9632</v>
+        <v>9636</v>
       </c>
       <c r="F263" t="n">
         <v>76</v>
@@ -6691,13 +6706,13 @@
         <v>7398</v>
       </c>
       <c r="C264" t="n">
-        <v>224669</v>
+        <v>224679</v>
       </c>
       <c r="D264" t="n">
         <v>256</v>
       </c>
       <c r="E264" t="n">
-        <v>9888</v>
+        <v>9892</v>
       </c>
       <c r="F264" t="n">
         <v>91</v>
@@ -6714,13 +6729,13 @@
         <v>4203</v>
       </c>
       <c r="C265" t="n">
-        <v>228872</v>
+        <v>228882</v>
       </c>
       <c r="D265" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E265" t="n">
-        <v>10104</v>
+        <v>10109</v>
       </c>
       <c r="F265" t="n">
         <v>68</v>
@@ -6737,13 +6752,13 @@
         <v>2999</v>
       </c>
       <c r="C266" t="n">
-        <v>231871</v>
+        <v>231881</v>
       </c>
       <c r="D266" t="n">
         <v>164</v>
       </c>
       <c r="E266" t="n">
-        <v>10268</v>
+        <v>10273</v>
       </c>
       <c r="F266" t="n">
         <v>88</v>
@@ -6760,13 +6775,13 @@
         <v>8732</v>
       </c>
       <c r="C267" t="n">
-        <v>240603</v>
+        <v>240613</v>
       </c>
       <c r="D267" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E267" t="n">
-        <v>10542</v>
+        <v>10548</v>
       </c>
       <c r="F267" t="n">
         <v>85</v>
@@ -6783,13 +6798,13 @@
         <v>7419</v>
       </c>
       <c r="C268" t="n">
-        <v>248022</v>
+        <v>248032</v>
       </c>
       <c r="D268" t="n">
         <v>206</v>
       </c>
       <c r="E268" t="n">
-        <v>10748</v>
+        <v>10754</v>
       </c>
       <c r="F268" t="n">
         <v>81</v>
@@ -6806,13 +6821,13 @@
         <v>6377</v>
       </c>
       <c r="C269" t="n">
-        <v>254399</v>
+        <v>254409</v>
       </c>
       <c r="D269" t="n">
         <v>220</v>
       </c>
       <c r="E269" t="n">
-        <v>10968</v>
+        <v>10974</v>
       </c>
       <c r="F269" t="n">
         <v>89</v>
@@ -6829,13 +6844,13 @@
         <v>5982</v>
       </c>
       <c r="C270" t="n">
-        <v>260381</v>
+        <v>260391</v>
       </c>
       <c r="D270" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E270" t="n">
-        <v>11175</v>
+        <v>11182</v>
       </c>
       <c r="F270" t="n">
         <v>103</v>
@@ -6852,13 +6867,13 @@
         <v>5702</v>
       </c>
       <c r="C271" t="n">
-        <v>266083</v>
+        <v>266093</v>
       </c>
       <c r="D271" t="n">
         <v>223</v>
       </c>
       <c r="E271" t="n">
-        <v>11398</v>
+        <v>11405</v>
       </c>
       <c r="F271" t="n">
         <v>85</v>
@@ -6875,13 +6890,13 @@
         <v>3221</v>
       </c>
       <c r="C272" t="n">
-        <v>269304</v>
+        <v>269314</v>
       </c>
       <c r="D272" t="n">
         <v>174</v>
       </c>
       <c r="E272" t="n">
-        <v>11572</v>
+        <v>11579</v>
       </c>
       <c r="F272" t="n">
         <v>76</v>
@@ -6898,13 +6913,13 @@
         <v>2325</v>
       </c>
       <c r="C273" t="n">
-        <v>271629</v>
+        <v>271639</v>
       </c>
       <c r="D273" t="n">
         <v>141</v>
       </c>
       <c r="E273" t="n">
-        <v>11713</v>
+        <v>11720</v>
       </c>
       <c r="F273" t="n">
         <v>82</v>
@@ -6918,16 +6933,16 @@
         <v>44151</v>
       </c>
       <c r="B274" t="n">
-        <v>6573</v>
+        <v>6574</v>
       </c>
       <c r="C274" t="n">
-        <v>278202</v>
+        <v>278213</v>
       </c>
       <c r="D274" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E274" t="n">
-        <v>11968</v>
+        <v>11976</v>
       </c>
       <c r="F274" t="n">
         <v>89</v>
@@ -6944,13 +6959,13 @@
         <v>5452</v>
       </c>
       <c r="C275" t="n">
-        <v>283654</v>
+        <v>283665</v>
       </c>
       <c r="D275" t="n">
         <v>200</v>
       </c>
       <c r="E275" t="n">
-        <v>12168</v>
+        <v>12176</v>
       </c>
       <c r="F275" t="n">
         <v>83</v>
@@ -6967,13 +6982,13 @@
         <v>4875</v>
       </c>
       <c r="C276" t="n">
-        <v>288529</v>
+        <v>288540</v>
       </c>
       <c r="D276" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E276" t="n">
-        <v>12342</v>
+        <v>12351</v>
       </c>
       <c r="F276" t="n">
         <v>102</v>
@@ -6990,13 +7005,13 @@
         <v>4512</v>
       </c>
       <c r="C277" t="n">
-        <v>293041</v>
+        <v>293052</v>
       </c>
       <c r="D277" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E277" t="n">
-        <v>12501</v>
+        <v>12511</v>
       </c>
       <c r="F277" t="n">
         <v>79</v>
@@ -7010,16 +7025,16 @@
         <v>44155</v>
       </c>
       <c r="B278" t="n">
-        <v>4341</v>
+        <v>4337</v>
       </c>
       <c r="C278" t="n">
-        <v>297382</v>
+        <v>297389</v>
       </c>
       <c r="D278" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E278" t="n">
-        <v>12703</v>
+        <v>12714</v>
       </c>
       <c r="F278" t="n">
         <v>80</v>
@@ -7036,19 +7051,19 @@
         <v>2584</v>
       </c>
       <c r="C279" t="n">
-        <v>299966</v>
+        <v>299973</v>
       </c>
       <c r="D279" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E279" t="n">
-        <v>12799</v>
+        <v>12811</v>
       </c>
       <c r="F279" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G279" t="n">
-        <v>3994</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="280">
@@ -7059,19 +7074,19 @@
         <v>1900</v>
       </c>
       <c r="C280" t="n">
-        <v>301866</v>
+        <v>301873</v>
       </c>
       <c r="D280" t="n">
         <v>145</v>
       </c>
       <c r="E280" t="n">
-        <v>12944</v>
+        <v>12956</v>
       </c>
       <c r="F280" t="n">
         <v>77</v>
       </c>
       <c r="G280" t="n">
-        <v>4071</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="281">
@@ -7082,19 +7097,19 @@
         <v>5458</v>
       </c>
       <c r="C281" t="n">
-        <v>307324</v>
+        <v>307331</v>
       </c>
       <c r="D281" t="n">
         <v>218</v>
       </c>
       <c r="E281" t="n">
-        <v>13162</v>
+        <v>13174</v>
       </c>
       <c r="F281" t="n">
         <v>95</v>
       </c>
       <c r="G281" t="n">
-        <v>4166</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="282">
@@ -7105,19 +7120,19 @@
         <v>4446</v>
       </c>
       <c r="C282" t="n">
-        <v>311770</v>
+        <v>311777</v>
       </c>
       <c r="D282" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E282" t="n">
-        <v>13313</v>
+        <v>13327</v>
       </c>
       <c r="F282" t="n">
         <v>88</v>
       </c>
       <c r="G282" t="n">
-        <v>4254</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="283">
@@ -7125,22 +7140,22 @@
         <v>44160</v>
       </c>
       <c r="B283" t="n">
-        <v>4328</v>
+        <v>4330</v>
       </c>
       <c r="C283" t="n">
-        <v>316098</v>
+        <v>316107</v>
       </c>
       <c r="D283" t="n">
         <v>160</v>
       </c>
       <c r="E283" t="n">
-        <v>13473</v>
+        <v>13487</v>
       </c>
       <c r="F283" t="n">
         <v>82</v>
       </c>
       <c r="G283" t="n">
-        <v>4336</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="284">
@@ -7151,19 +7166,19 @@
         <v>3969</v>
       </c>
       <c r="C284" t="n">
-        <v>320067</v>
+        <v>320076</v>
       </c>
       <c r="D284" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E284" t="n">
-        <v>13631</v>
+        <v>13648</v>
       </c>
       <c r="F284" t="n">
         <v>69</v>
       </c>
       <c r="G284" t="n">
-        <v>4405</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="285">
@@ -7174,19 +7189,19 @@
         <v>4074</v>
       </c>
       <c r="C285" t="n">
-        <v>324141</v>
+        <v>324150</v>
       </c>
       <c r="D285" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E285" t="n">
-        <v>13810</v>
+        <v>13830</v>
       </c>
       <c r="F285" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G285" t="n">
-        <v>4489</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="286">
@@ -7197,19 +7212,19 @@
         <v>2314</v>
       </c>
       <c r="C286" t="n">
-        <v>326455</v>
+        <v>326464</v>
       </c>
       <c r="D286" t="n">
         <v>136</v>
       </c>
       <c r="E286" t="n">
-        <v>13946</v>
+        <v>13966</v>
       </c>
       <c r="F286" t="n">
         <v>83</v>
       </c>
       <c r="G286" t="n">
-        <v>4572</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="287">
@@ -7220,19 +7235,19 @@
         <v>1701</v>
       </c>
       <c r="C287" t="n">
-        <v>328156</v>
+        <v>328165</v>
       </c>
       <c r="D287" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E287" t="n">
-        <v>14052</v>
+        <v>14073</v>
       </c>
       <c r="F287" t="n">
         <v>77</v>
       </c>
       <c r="G287" t="n">
-        <v>4649</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="288">
@@ -7243,19 +7258,19 @@
         <v>5299</v>
       </c>
       <c r="C288" t="n">
-        <v>333455</v>
+        <v>333464</v>
       </c>
       <c r="D288" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E288" t="n">
-        <v>14235</v>
+        <v>14258</v>
       </c>
       <c r="F288" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G288" t="n">
-        <v>4733</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="289">
@@ -7266,19 +7281,19 @@
         <v>4273</v>
       </c>
       <c r="C289" t="n">
-        <v>337728</v>
+        <v>337737</v>
       </c>
       <c r="D289" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E289" t="n">
-        <v>14365</v>
+        <v>14389</v>
       </c>
       <c r="F289" t="n">
         <v>84</v>
       </c>
       <c r="G289" t="n">
-        <v>4817</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="290">
@@ -7286,22 +7301,22 @@
         <v>44167</v>
       </c>
       <c r="B290" t="n">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="C290" t="n">
-        <v>342161</v>
+        <v>342169</v>
       </c>
       <c r="D290" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E290" t="n">
-        <v>14515</v>
+        <v>14542</v>
       </c>
       <c r="F290" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G290" t="n">
-        <v>4899</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="291">
@@ -7309,22 +7324,22 @@
         <v>44168</v>
       </c>
       <c r="B291" t="n">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="C291" t="n">
-        <v>346496</v>
+        <v>346505</v>
       </c>
       <c r="D291" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E291" t="n">
-        <v>14665</v>
+        <v>14694</v>
       </c>
       <c r="F291" t="n">
         <v>73</v>
       </c>
       <c r="G291" t="n">
-        <v>4972</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="292">
@@ -7335,19 +7350,19 @@
         <v>4554</v>
       </c>
       <c r="C292" t="n">
-        <v>351050</v>
+        <v>351059</v>
       </c>
       <c r="D292" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E292" t="n">
-        <v>14808</v>
+        <v>14840</v>
       </c>
       <c r="F292" t="n">
         <v>72</v>
       </c>
       <c r="G292" t="n">
-        <v>5044</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="293">
@@ -7355,22 +7370,22 @@
         <v>44170</v>
       </c>
       <c r="B293" t="n">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="C293" t="n">
-        <v>353577</v>
+        <v>353584</v>
       </c>
       <c r="D293" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E293" t="n">
-        <v>14924</v>
+        <v>14959</v>
       </c>
       <c r="F293" t="n">
         <v>88</v>
       </c>
       <c r="G293" t="n">
-        <v>5132</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="294">
@@ -7381,19 +7396,19 @@
         <v>1938</v>
       </c>
       <c r="C294" t="n">
-        <v>355515</v>
+        <v>355522</v>
       </c>
       <c r="D294" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E294" t="n">
-        <v>15028</v>
+        <v>15066</v>
       </c>
       <c r="F294" t="n">
         <v>58</v>
       </c>
       <c r="G294" t="n">
-        <v>5190</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="295">
@@ -7401,22 +7416,22 @@
         <v>44172</v>
       </c>
       <c r="B295" t="n">
-        <v>5854</v>
+        <v>5858</v>
       </c>
       <c r="C295" t="n">
-        <v>361369</v>
+        <v>361380</v>
       </c>
       <c r="D295" t="n">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E295" t="n">
-        <v>15193</v>
+        <v>15239</v>
       </c>
       <c r="F295" t="n">
         <v>69</v>
       </c>
       <c r="G295" t="n">
-        <v>5259</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="296">
@@ -7424,22 +7439,22 @@
         <v>44173</v>
       </c>
       <c r="B296" t="n">
-        <v>4682</v>
+        <v>4684</v>
       </c>
       <c r="C296" t="n">
-        <v>366051</v>
+        <v>366064</v>
       </c>
       <c r="D296" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E296" t="n">
-        <v>15325</v>
+        <v>15379</v>
       </c>
       <c r="F296" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G296" t="n">
-        <v>5347</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="297">
@@ -7447,22 +7462,22 @@
         <v>44174</v>
       </c>
       <c r="B297" t="n">
-        <v>5254</v>
+        <v>5259</v>
       </c>
       <c r="C297" t="n">
-        <v>371305</v>
+        <v>371323</v>
       </c>
       <c r="D297" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E297" t="n">
-        <v>15490</v>
+        <v>15549</v>
       </c>
       <c r="F297" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G297" t="n">
-        <v>5420</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="298">
@@ -7470,22 +7485,22 @@
         <v>44175</v>
       </c>
       <c r="B298" t="n">
-        <v>4651</v>
+        <v>4654</v>
       </c>
       <c r="C298" t="n">
-        <v>375956</v>
+        <v>375977</v>
       </c>
       <c r="D298" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E298" t="n">
-        <v>15606</v>
+        <v>15668</v>
       </c>
       <c r="F298" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G298" t="n">
-        <v>5494</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="299">
@@ -7493,22 +7508,22 @@
         <v>44176</v>
       </c>
       <c r="B299" t="n">
-        <v>4696</v>
+        <v>4697</v>
       </c>
       <c r="C299" t="n">
-        <v>380652</v>
+        <v>380674</v>
       </c>
       <c r="D299" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E299" t="n">
-        <v>15716</v>
+        <v>15787</v>
       </c>
       <c r="F299" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G299" t="n">
-        <v>5562</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="300">
@@ -7516,22 +7531,22 @@
         <v>44177</v>
       </c>
       <c r="B300" t="n">
-        <v>2863</v>
+        <v>2869</v>
       </c>
       <c r="C300" t="n">
-        <v>383515</v>
+        <v>383543</v>
       </c>
       <c r="D300" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E300" t="n">
-        <v>15823</v>
+        <v>15898</v>
       </c>
       <c r="F300" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G300" t="n">
-        <v>5631</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="301">
@@ -7539,22 +7554,22 @@
         <v>44178</v>
       </c>
       <c r="B301" t="n">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="C301" t="n">
-        <v>385625</v>
+        <v>385655</v>
       </c>
       <c r="D301" t="n">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E301" t="n">
-        <v>15919</v>
+        <v>16009</v>
       </c>
       <c r="F301" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G301" t="n">
-        <v>5702</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="302">
@@ -7562,22 +7577,22 @@
         <v>44179</v>
       </c>
       <c r="B302" t="n">
-        <v>5641</v>
+        <v>5915</v>
       </c>
       <c r="C302" t="n">
-        <v>391266</v>
+        <v>391570</v>
       </c>
       <c r="D302" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="E302" t="n">
-        <v>15991</v>
+        <v>16127</v>
       </c>
       <c r="F302" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G302" t="n">
-        <v>5762</v>
+        <v>5802</v>
       </c>
     </row>
     <row r="303">
@@ -7585,22 +7600,22 @@
         <v>44180</v>
       </c>
       <c r="B303" t="n">
-        <v>3180</v>
+        <v>4976</v>
       </c>
       <c r="C303" t="n">
-        <v>394446</v>
+        <v>396546</v>
       </c>
       <c r="D303" t="n">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="E303" t="n">
-        <v>16011</v>
+        <v>16209</v>
       </c>
       <c r="F303" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G303" t="n">
-        <v>5780</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="304">
@@ -7608,22 +7623,45 @@
         <v>44181</v>
       </c>
       <c r="B304" t="n">
-        <v>7</v>
+        <v>2927</v>
       </c>
       <c r="C304" t="n">
-        <v>394453</v>
+        <v>399473</v>
       </c>
       <c r="D304" t="n">
+        <v>18</v>
+      </c>
+      <c r="E304" t="n">
+        <v>16227</v>
+      </c>
+      <c r="F304" t="n">
+        <v>24</v>
+      </c>
+      <c r="G304" t="n">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B305" t="n">
+        <v>38</v>
+      </c>
+      <c r="C305" t="n">
+        <v>399511</v>
+      </c>
+      <c r="D305" t="n">
         <v>1</v>
       </c>
-      <c r="E304" t="n">
-        <v>16012</v>
-      </c>
-      <c r="F304" t="n">
-        <v>1</v>
-      </c>
-      <c r="G304" t="n">
-        <v>5781</v>
+      <c r="E305" t="n">
+        <v>16228</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0</v>
+      </c>
+      <c r="G305" t="n">
+        <v>5883</v>
       </c>
     </row>
   </sheetData>
@@ -7638,7 +7676,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="20.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
@@ -7713,31 +7751,31 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>1943</v>
+        <v>1977</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>431.4</v>
+        <v>438.9</v>
       </c>
       <c r="E8" t="n">
-        <v>1749</v>
+        <v>1780</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G8" t="n">
-        <v>409.9</v>
+        <v>417.2</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3696</v>
+        <v>3761</v>
       </c>
       <c r="K8" t="n">
         <v>0.9</v>
@@ -7748,31 +7786,31 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>16150</v>
+        <v>16382</v>
       </c>
       <c r="C9" t="n">
         <v>8.6</v>
       </c>
       <c r="D9" t="n">
-        <v>3698.9</v>
+        <v>3752</v>
       </c>
       <c r="E9" t="n">
-        <v>16464</v>
+        <v>16689</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>4001.4</v>
+        <v>4056.1</v>
       </c>
       <c r="H9" t="n">
         <v>11</v>
       </c>
       <c r="I9" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="J9" t="n">
-        <v>32625</v>
+        <v>33082</v>
       </c>
       <c r="K9" t="n">
         <v>8.3</v>
@@ -7783,31 +7821,31 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>33330</v>
+        <v>33710</v>
       </c>
       <c r="C10" t="n">
         <v>17.7</v>
       </c>
       <c r="D10" t="n">
-        <v>6205.2</v>
+        <v>6276</v>
       </c>
       <c r="E10" t="n">
-        <v>36478</v>
+        <v>36869</v>
       </c>
       <c r="F10" t="n">
         <v>17.7</v>
       </c>
       <c r="G10" t="n">
-        <v>7114.4</v>
+        <v>7190.7</v>
       </c>
       <c r="H10" t="n">
         <v>16</v>
       </c>
       <c r="I10" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="J10" t="n">
-        <v>69824</v>
+        <v>70595</v>
       </c>
       <c r="K10" t="n">
         <v>17.7</v>
@@ -7818,34 +7856,34 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>32526</v>
+        <v>32885</v>
       </c>
       <c r="C11" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="D11" t="n">
-        <v>5218</v>
+        <v>5275.6</v>
       </c>
       <c r="E11" t="n">
-        <v>34314</v>
+        <v>34758</v>
       </c>
       <c r="F11" t="n">
         <v>16.7</v>
       </c>
       <c r="G11" t="n">
-        <v>5617.9</v>
+        <v>5690.6</v>
       </c>
       <c r="H11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" t="n">
-        <v>23.8</v>
+        <v>22.3</v>
       </c>
       <c r="J11" t="n">
-        <v>66864</v>
+        <v>67666</v>
       </c>
       <c r="K11" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="12">
@@ -7853,31 +7891,31 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>29383</v>
+        <v>29705</v>
       </c>
       <c r="C12" t="n">
         <v>15.6</v>
       </c>
       <c r="D12" t="n">
-        <v>4854.4</v>
+        <v>4907.5</v>
       </c>
       <c r="E12" t="n">
-        <v>33484</v>
+        <v>33936</v>
       </c>
       <c r="F12" t="n">
         <v>16.3</v>
       </c>
       <c r="G12" t="n">
-        <v>5594.4</v>
+        <v>5669.9</v>
       </c>
       <c r="H12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="J12" t="n">
-        <v>62886</v>
+        <v>63661</v>
       </c>
       <c r="K12" t="n">
         <v>15.9</v>
@@ -7888,31 +7926,31 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>31986</v>
+        <v>32427</v>
       </c>
       <c r="C13" t="n">
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>4888</v>
+        <v>4955.4</v>
       </c>
       <c r="E13" t="n">
-        <v>34260</v>
+        <v>34700</v>
       </c>
       <c r="F13" t="n">
         <v>16.6</v>
       </c>
       <c r="G13" t="n">
-        <v>5315.5</v>
+        <v>5383.8</v>
       </c>
       <c r="H13" t="n">
         <v>15</v>
       </c>
       <c r="I13" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="J13" t="n">
-        <v>66261</v>
+        <v>67142</v>
       </c>
       <c r="K13" t="n">
         <v>16.8</v>
@@ -7923,31 +7961,31 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>19707</v>
+        <v>19970</v>
       </c>
       <c r="C14" t="n">
         <v>10.5</v>
       </c>
       <c r="D14" t="n">
-        <v>4206.3</v>
+        <v>4262.4</v>
       </c>
       <c r="E14" t="n">
-        <v>18130</v>
+        <v>18380</v>
       </c>
       <c r="F14" t="n">
         <v>8.8</v>
       </c>
       <c r="G14" t="n">
-        <v>3743.9</v>
+        <v>3795.5</v>
       </c>
       <c r="H14" t="n">
         <v>8</v>
       </c>
       <c r="I14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="J14" t="n">
-        <v>37845</v>
+        <v>38358</v>
       </c>
       <c r="K14" t="n">
         <v>9.6</v>
@@ -7958,31 +7996,31 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>12841</v>
+        <v>13017</v>
       </c>
       <c r="C15" t="n">
         <v>6.8</v>
       </c>
       <c r="D15" t="n">
-        <v>3798.9</v>
+        <v>3851</v>
       </c>
       <c r="E15" t="n">
-        <v>12442</v>
+        <v>12613</v>
       </c>
       <c r="F15" t="n">
         <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>3215.9</v>
+        <v>3260.1</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
-        <v>25287</v>
+        <v>25634</v>
       </c>
       <c r="K15" t="n">
         <v>6.4</v>
@@ -7993,22 +8031,22 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>10516</v>
+        <v>10669</v>
       </c>
       <c r="C16" t="n">
         <v>5.6</v>
       </c>
       <c r="D16" t="n">
-        <v>6031</v>
+        <v>6118.7</v>
       </c>
       <c r="E16" t="n">
-        <v>18546</v>
+        <v>18838</v>
       </c>
       <c r="F16" t="n">
         <v>9</v>
       </c>
       <c r="G16" t="n">
-        <v>6604</v>
+        <v>6707.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -8017,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29062</v>
+        <v>29507</v>
       </c>
       <c r="K16" t="n">
         <v>7.4</v>
@@ -8042,13 +8080,13 @@
       </c>
       <c r="G17"/>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="J17" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8071,7 +8109,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
@@ -8126,16 +8164,16 @@
         <v>41</v>
       </c>
       <c r="B8" t="n">
-        <v>22960</v>
+        <v>23465</v>
       </c>
       <c r="C8" t="n">
-        <v>3347.7</v>
+        <v>3421.3</v>
       </c>
       <c r="E8" t="n">
-        <v>5064</v>
+        <v>5196</v>
       </c>
       <c r="F8" t="n">
-        <v>738.4</v>
+        <v>757.6</v>
       </c>
     </row>
     <row r="9">
@@ -8143,16 +8181,16 @@
         <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="C9" t="n">
-        <v>3955.9</v>
+        <v>3986.9</v>
       </c>
       <c r="E9" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" t="n">
-        <v>520.8</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10">
@@ -8160,16 +8198,16 @@
         <v>43</v>
       </c>
       <c r="B10" t="n">
-        <v>2058</v>
+        <v>2093</v>
       </c>
       <c r="C10" t="n">
-        <v>3711.8</v>
+        <v>3774.9</v>
       </c>
       <c r="E10" t="n">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="F10" t="n">
-        <v>660.1</v>
+        <v>676.3</v>
       </c>
     </row>
     <row r="11">
@@ -8177,16 +8215,16 @@
         <v>44</v>
       </c>
       <c r="B11" t="n">
-        <v>36174</v>
+        <v>36717</v>
       </c>
       <c r="C11" t="n">
-        <v>3480</v>
+        <v>3532.3</v>
       </c>
       <c r="E11" t="n">
-        <v>6551</v>
+        <v>6593</v>
       </c>
       <c r="F11" t="n">
-        <v>630.2</v>
+        <v>634.3</v>
       </c>
     </row>
     <row r="12">
@@ -8194,16 +8232,16 @@
         <v>45</v>
       </c>
       <c r="B12" t="n">
-        <v>9087</v>
+        <v>9240</v>
       </c>
       <c r="C12" t="n">
-        <v>3139.2</v>
+        <v>3192.1</v>
       </c>
       <c r="E12" t="n">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="F12" t="n">
-        <v>732.7</v>
+        <v>733.4</v>
       </c>
     </row>
     <row r="13">
@@ -8211,16 +8249,16 @@
         <v>46</v>
       </c>
       <c r="B13" t="n">
-        <v>7219</v>
+        <v>7327</v>
       </c>
       <c r="C13" t="n">
-        <v>3686.1</v>
+        <v>3741.2</v>
       </c>
       <c r="E13" t="n">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="F13" t="n">
-        <v>686.3</v>
+        <v>688.8</v>
       </c>
     </row>
     <row r="14">
@@ -8228,16 +8266,16 @@
         <v>47</v>
       </c>
       <c r="B14" t="n">
-        <v>1655</v>
+        <v>1691</v>
       </c>
       <c r="C14" t="n">
-        <v>4271.3</v>
+        <v>4364.2</v>
       </c>
       <c r="E14" t="n">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="F14" t="n">
-        <v>738.1</v>
+        <v>792.3</v>
       </c>
     </row>
     <row r="15">
@@ -8245,16 +8283,16 @@
         <v>48</v>
       </c>
       <c r="B15" t="n">
-        <v>22167</v>
+        <v>22244</v>
       </c>
       <c r="C15" t="n">
-        <v>6888.8</v>
+        <v>6912.7</v>
       </c>
       <c r="E15" t="n">
-        <v>1341</v>
+        <v>1309</v>
       </c>
       <c r="F15" t="n">
-        <v>416.7</v>
+        <v>406.8</v>
       </c>
     </row>
     <row r="16">
@@ -8262,16 +8300,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="n">
-        <v>41610</v>
+        <v>41776</v>
       </c>
       <c r="C16" t="n">
-        <v>8253.9</v>
+        <v>8286.8</v>
       </c>
       <c r="E16" t="n">
-        <v>2109</v>
+        <v>2101</v>
       </c>
       <c r="F16" t="n">
-        <v>418.3</v>
+        <v>416.8</v>
       </c>
     </row>
     <row r="17">
@@ -8279,16 +8317,16 @@
         <v>50</v>
       </c>
       <c r="B17" t="n">
-        <v>1278</v>
+        <v>1298</v>
       </c>
       <c r="C17" t="n">
-        <v>3148.6</v>
+        <v>3197.8</v>
       </c>
       <c r="E17" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F17" t="n">
-        <v>724.3</v>
+        <v>719.4</v>
       </c>
     </row>
     <row r="18">
@@ -8296,16 +8334,16 @@
         <v>51</v>
       </c>
       <c r="B18" t="n">
-        <v>6947</v>
+        <v>7058</v>
       </c>
       <c r="C18" t="n">
-        <v>3490.6</v>
+        <v>3546.4</v>
       </c>
       <c r="E18" t="n">
-        <v>1385</v>
+        <v>1396</v>
       </c>
       <c r="F18" t="n">
-        <v>695.9</v>
+        <v>701.4</v>
       </c>
     </row>
     <row r="19">
@@ -8313,16 +8351,16 @@
         <v>52</v>
       </c>
       <c r="B19" t="n">
-        <v>4210</v>
+        <v>4253</v>
       </c>
       <c r="C19" t="n">
-        <v>5721.4</v>
+        <v>5779.8</v>
       </c>
       <c r="E19" t="n">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="F19" t="n">
-        <v>377.8</v>
+        <v>418.6</v>
       </c>
     </row>
     <row r="20">
@@ -8330,16 +8368,16 @@
         <v>53</v>
       </c>
       <c r="B20" t="n">
-        <v>13665</v>
+        <v>13991</v>
       </c>
       <c r="C20" t="n">
-        <v>3307.8</v>
+        <v>3386.7</v>
       </c>
       <c r="E20" t="n">
-        <v>2813</v>
+        <v>2940</v>
       </c>
       <c r="F20" t="n">
-        <v>680.9</v>
+        <v>711.7</v>
       </c>
     </row>
     <row r="21">
@@ -8347,16 +8385,16 @@
         <v>54</v>
       </c>
       <c r="B21" t="n">
-        <v>10934</v>
+        <v>11014</v>
       </c>
       <c r="C21" t="n">
-        <v>6195</v>
+        <v>6240.4</v>
       </c>
       <c r="E21" t="n">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F21" t="n">
-        <v>479.9</v>
+        <v>476.5</v>
       </c>
     </row>
     <row r="22">
@@ -8364,16 +8402,16 @@
         <v>55</v>
       </c>
       <c r="B22" t="n">
-        <v>1181</v>
+        <v>1209</v>
       </c>
       <c r="C22" t="n">
-        <v>2741</v>
+        <v>2806</v>
       </c>
       <c r="E22" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F22" t="n">
-        <v>577.9</v>
+        <v>596.5</v>
       </c>
     </row>
     <row r="23">
@@ -8381,10 +8419,10 @@
         <v>56</v>
       </c>
       <c r="B23" t="n">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="C23" t="n">
-        <v>3074.1</v>
+        <v>3108.4</v>
       </c>
       <c r="E23" t="n">
         <v>141</v>
@@ -8398,16 +8436,16 @@
         <v>57</v>
       </c>
       <c r="B24" t="n">
-        <v>23008</v>
+        <v>23475</v>
       </c>
       <c r="C24" t="n">
-        <v>4504.9</v>
+        <v>4596.3</v>
       </c>
       <c r="E24" t="n">
-        <v>4809</v>
+        <v>4878</v>
       </c>
       <c r="F24" t="n">
-        <v>941.6</v>
+        <v>955.1</v>
       </c>
     </row>
     <row r="25">
@@ -8415,16 +8453,16 @@
         <v>58</v>
       </c>
       <c r="B25" t="n">
-        <v>2566</v>
+        <v>2607</v>
       </c>
       <c r="C25" t="n">
-        <v>3116</v>
+        <v>3165.8</v>
       </c>
       <c r="E25" t="n">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="F25" t="n">
-        <v>694.6</v>
+        <v>684.9</v>
       </c>
     </row>
     <row r="26">
@@ -8432,16 +8470,16 @@
         <v>59</v>
       </c>
       <c r="B26" t="n">
-        <v>8805</v>
+        <v>8970</v>
       </c>
       <c r="C26" t="n">
-        <v>3198.9</v>
+        <v>3258.9</v>
       </c>
       <c r="E26" t="n">
-        <v>2161</v>
+        <v>2190</v>
       </c>
       <c r="F26" t="n">
-        <v>785.1</v>
+        <v>795.6</v>
       </c>
     </row>
     <row r="27">
@@ -8449,16 +8487,16 @@
         <v>60</v>
       </c>
       <c r="B27" t="n">
-        <v>6469</v>
+        <v>6586</v>
       </c>
       <c r="C27" t="n">
-        <v>4031</v>
+        <v>4103.9</v>
       </c>
       <c r="E27" t="n">
-        <v>1148</v>
+        <v>1187</v>
       </c>
       <c r="F27" t="n">
-        <v>715.4</v>
+        <v>739.7</v>
       </c>
     </row>
     <row r="28">
@@ -8466,16 +8504,16 @@
         <v>61</v>
       </c>
       <c r="B28" t="n">
-        <v>9250</v>
+        <v>9467</v>
       </c>
       <c r="C28" t="n">
-        <v>3308.9</v>
+        <v>3386.6</v>
       </c>
       <c r="E28" t="n">
-        <v>2214</v>
+        <v>2272</v>
       </c>
       <c r="F28" t="n">
-        <v>792</v>
+        <v>812.7</v>
       </c>
     </row>
     <row r="29">
@@ -8483,16 +8521,16 @@
         <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>19606</v>
+        <v>19854</v>
       </c>
       <c r="C29" t="n">
-        <v>5578</v>
+        <v>5648.5</v>
       </c>
       <c r="E29" t="n">
-        <v>3233</v>
+        <v>3229</v>
       </c>
       <c r="F29" t="n">
-        <v>919.8</v>
+        <v>918.7</v>
       </c>
     </row>
     <row r="30">
@@ -8500,16 +8538,16 @@
         <v>63</v>
       </c>
       <c r="B30" t="n">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="C30" t="n">
-        <v>3201.4</v>
+        <v>3217.7</v>
       </c>
       <c r="E30" t="n">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F30" t="n">
-        <v>607.6</v>
+        <v>574.9</v>
       </c>
     </row>
     <row r="31">
@@ -8517,16 +8555,16 @@
         <v>64</v>
       </c>
       <c r="B31" t="n">
-        <v>53703</v>
+        <v>53988</v>
       </c>
       <c r="C31" t="n">
-        <v>6670.4</v>
+        <v>6705.8</v>
       </c>
       <c r="E31" t="n">
-        <v>3887</v>
+        <v>3793</v>
       </c>
       <c r="F31" t="n">
-        <v>482.8</v>
+        <v>471.1</v>
       </c>
     </row>
     <row r="32">
@@ -8534,16 +8572,16 @@
         <v>65</v>
       </c>
       <c r="B32" t="n">
-        <v>24244</v>
+        <v>24348</v>
       </c>
       <c r="C32" t="n">
-        <v>7016.6</v>
+        <v>7046.7</v>
       </c>
       <c r="E32" t="n">
-        <v>1474</v>
+        <v>1459</v>
       </c>
       <c r="F32" t="n">
-        <v>426.6</v>
+        <v>422.3</v>
       </c>
     </row>
     <row r="33">
@@ -8551,10 +8589,10 @@
         <v>66</v>
       </c>
       <c r="B33" t="n">
-        <v>4108</v>
+        <v>4173</v>
       </c>
       <c r="C33" t="n">
-        <v>3218.4</v>
+        <v>3269.3</v>
       </c>
       <c r="E33" t="n">
         <v>674</v>
@@ -8568,16 +8606,16 @@
         <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>58570</v>
+        <v>59664</v>
       </c>
       <c r="C34" t="n">
-        <v>3805</v>
+        <v>3876.1</v>
       </c>
       <c r="E34" t="n">
-        <v>11050</v>
+        <v>11234</v>
       </c>
       <c r="F34" t="n">
-        <v>717.9</v>
+        <v>729.8</v>
       </c>
     </row>
     <row r="35">
@@ -8585,16 +8623,16 @@
         <v>68</v>
       </c>
       <c r="B35" t="n">
-        <v>394453</v>
+        <v>399511</v>
       </c>
       <c r="C35" t="n">
-        <v>4562.9</v>
+        <v>4621.4</v>
       </c>
       <c r="E35" t="n">
-        <v>56718</v>
+        <v>57304</v>
       </c>
       <c r="F35" t="n">
-        <v>656.1</v>
+        <v>662.9</v>
       </c>
     </row>
     <row r="37">
@@ -8614,7 +8652,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="20.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
@@ -8673,7 +8711,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" t="n">
         <v>60</v>
@@ -8682,13 +8720,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F8" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="G8" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="H8" t="n">
         <v>14.1</v>
@@ -8725,25 +8763,25 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C10" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F10" t="n">
-        <v>28.5</v>
+        <v>28.9</v>
       </c>
       <c r="G10" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="H10" t="n">
-        <v>23.8</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="11">
@@ -8751,7 +8789,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C11" t="n">
         <v>197</v>
@@ -8760,13 +8798,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F11" t="n">
-        <v>35.4</v>
+        <v>35.7</v>
       </c>
       <c r="G11" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="H11" t="n">
         <v>32.3</v>
@@ -8777,25 +8815,25 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C12" t="n">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="F12" t="n">
-        <v>72.5</v>
+        <v>73.1</v>
       </c>
       <c r="G12" t="n">
-        <v>90.4</v>
+        <v>90.9</v>
       </c>
       <c r="H12" t="n">
-        <v>54.5</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="13">
@@ -8803,25 +8841,25 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>1243</v>
+        <v>1251</v>
       </c>
       <c r="C13" t="n">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1954</v>
+        <v>1968</v>
       </c>
       <c r="F13" t="n">
-        <v>150.4</v>
+        <v>151.5</v>
       </c>
       <c r="G13" t="n">
-        <v>190</v>
+        <v>191.2</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="14">
@@ -8829,25 +8867,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>1874</v>
+        <v>1895</v>
       </c>
       <c r="C14" t="n">
-        <v>997</v>
+        <v>1011</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>2873</v>
+        <v>2908</v>
       </c>
       <c r="F14" t="n">
-        <v>301.5</v>
+        <v>305.2</v>
       </c>
       <c r="G14" t="n">
-        <v>400</v>
+        <v>404.5</v>
       </c>
       <c r="H14" t="n">
-        <v>205.9</v>
+        <v>208.8</v>
       </c>
     </row>
     <row r="15">
@@ -8855,25 +8893,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>2512</v>
+        <v>2549</v>
       </c>
       <c r="C15" t="n">
-        <v>1670</v>
+        <v>1697</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>4182</v>
+        <v>4246</v>
       </c>
       <c r="F15" t="n">
-        <v>576.9</v>
+        <v>585.7</v>
       </c>
       <c r="G15" t="n">
-        <v>743.2</v>
+        <v>754.1</v>
       </c>
       <c r="H15" t="n">
-        <v>431.7</v>
+        <v>438.6</v>
       </c>
     </row>
     <row r="16">
@@ -8881,25 +8919,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>2785</v>
+        <v>2838</v>
       </c>
       <c r="C16" t="n">
-        <v>2684</v>
+        <v>2727</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>5469</v>
+        <v>5565</v>
       </c>
       <c r="F16" t="n">
-        <v>1201.5</v>
+        <v>1222.5</v>
       </c>
       <c r="G16" t="n">
-        <v>1597.2</v>
+        <v>1627.6</v>
       </c>
       <c r="H16" t="n">
-        <v>955.7</v>
+        <v>971</v>
       </c>
     </row>
     <row r="17">
@@ -8939,7 +8977,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="20.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
@@ -9077,22 +9115,22 @@
         <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -9100,7 +9138,7 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" t="n">
         <v>25</v>
@@ -9109,13 +9147,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F13" t="n">
         <v>7.2</v>
       </c>
       <c r="G13" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.9</v>
@@ -9126,25 +9164,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C14" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F14" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="G14" t="n">
-        <v>56.1</v>
+        <v>56.6</v>
       </c>
       <c r="H14" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="15">
@@ -9152,25 +9190,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="C15" t="n">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1165</v>
+        <v>1178</v>
       </c>
       <c r="F15" t="n">
-        <v>160.7</v>
+        <v>162.5</v>
       </c>
       <c r="G15" t="n">
-        <v>228.4</v>
+        <v>230.2</v>
       </c>
       <c r="H15" t="n">
-        <v>101.6</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="16">
@@ -9178,25 +9216,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>2044</v>
+        <v>2083</v>
       </c>
       <c r="C16" t="n">
-        <v>2106</v>
+        <v>2151</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4150</v>
+        <v>4234</v>
       </c>
       <c r="F16" t="n">
-        <v>911.7</v>
+        <v>930.1</v>
       </c>
       <c r="G16" t="n">
-        <v>1172.2</v>
+        <v>1194.6</v>
       </c>
       <c r="H16" t="n">
-        <v>749.9</v>
+        <v>765.9</v>
       </c>
     </row>
     <row r="18">
@@ -9216,7 +9254,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
@@ -9274,20 +9312,26 @@
         <v>41</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>291.611078304865</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>4.08255509626811</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -9297,13 +9341,13 @@
         <v>44180</v>
       </c>
       <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
         <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" t="s">
-        <v>97</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>297.619047619048</v>
@@ -9323,13 +9367,13 @@
         <v>44180</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>394.986022184146</v>
@@ -9349,13 +9393,13 @@
         <v>44180</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>439.741638559502</v>
@@ -9375,13 +9419,13 @@
         <v>44180</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>702.66834330565</v>
@@ -9401,13 +9445,13 @@
         <v>44180</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -9421,13 +9465,13 @@
         <v>44180</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>495.522233979405</v>
@@ -9447,13 +9491,13 @@
         <v>44180</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -9467,13 +9511,13 @@
         <v>44180</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>233.472451440904</v>
@@ -9493,13 +9537,13 @@
         <v>44180</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>537.078098053708</v>
@@ -9519,13 +9563,13 @@
         <v>44180</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>305.495399982916</v>
@@ -9545,13 +9589,13 @@
         <v>44180</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>222.874537943031</v>
@@ -9571,13 +9615,13 @@
         <v>44180</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>474.438419829589</v>
@@ -9597,13 +9641,13 @@
         <v>44180</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>245.331338953857</v>
@@ -9623,13 +9667,13 @@
         <v>44180</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -9643,13 +9687,13 @@
         <v>44180</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -9663,13 +9707,13 @@
         <v>44180</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -9683,13 +9727,13 @@
         <v>44180</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>421.382425802691</v>
@@ -9709,13 +9753,13 @@
         <v>44180</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>546.054997874636</v>
@@ -9735,13 +9779,13 @@
         <v>44180</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>616.276171485543</v>
@@ -9761,13 +9805,13 @@
         <v>44180</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>409.591231528151</v>
@@ -9787,13 +9831,13 @@
         <v>44180</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>519.785712863203</v>
@@ -9813,13 +9857,13 @@
         <v>44180</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>444.105386480669</v>
@@ -9839,13 +9883,13 @@
         <v>44180</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>339.585988289624</v>
@@ -9865,13 +9909,13 @@
         <v>44180</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>294.913537370668</v>
@@ -9888,20 +9932,26 @@
         <v>66</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>249.134297488288</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>473.198476990332</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>1.56688237414017</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -9911,13 +9961,13 @@
         <v>44180</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>423.31617157428</v>
